--- a/شسپا/شسپا.xlsx
+++ b/شسپا/شسپا.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="دارایی فعلی" sheetId="3" r:id="rId1"/>
@@ -1037,135 +1037,253 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1175,121 +1293,64 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1298,16 +1359,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1316,42 +1383,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1364,40 +1395,40 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1406,6 +1437,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1418,43 +1452,9 @@
     <xf numFmtId="10" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1477,26 +1477,24 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="پرتفوی"/>
+      <sheetName val="سرمایه"/>
+      <sheetName val="بازدهی ماهانه"/>
+      <sheetName val="واریز و برداشت"/>
       <sheetName val="مدیریت سرمایه"/>
-      <sheetName val="محاسبه مدیریت سرمایه"/>
-      <sheetName val="پرتفوی"/>
-      <sheetName val="تحلیل"/>
-      <sheetName val="تاریخچه خرید"/>
-      <sheetName val="تاریخچه فروش"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
         <row r="5">
           <cell r="B5">
-            <v>1466894651</v>
+            <v>179695690.64468727</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1791,7 +1789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
@@ -1813,38 +1811,38 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="47" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="36" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1885,104 +1883,114 @@
       <c r="M3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="42"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="36"/>
     </row>
     <row r="4" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="44">
+      <c r="B4" s="38">
         <f>IF(L4&gt;0, C4/L4,"RF")</f>
         <v>-7.6788511749347288</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="39">
         <f>(D4/Q4)-1</f>
         <v>-1</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="40">
         <v>0</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="38">
         <f>IF(L4&gt;0, F4/L4,"RF")</f>
         <v>-7.6788511749347288</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="39">
         <f>(G4/Q4)-1</f>
         <v>-1</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="40">
         <v>0</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="38">
         <f>IF(L4&gt;0, I4/L4,"RF")</f>
         <v>3.8511749347258499</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="39">
         <f>(J4/Q4)-1</f>
         <v>0.50153009180550834</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="40">
         <v>17664</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="45">
         <f>IF(L4&gt;0, N4-M4*R4, 0)</f>
         <v>657228</v>
       </c>
-      <c r="L4" s="51">
+      <c r="L4" s="46">
         <f>IF(1-(M4/Q4)&gt;0, 1-(M4/Q4), 0)</f>
         <v>0.13022781366882008</v>
       </c>
-      <c r="M4" s="46">
+      <c r="M4" s="41">
         <v>10232</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="55">
         <f>R4*Q4</f>
         <v>5046756</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="39">
         <f>IF( (Q4-M4)*R4/P4&gt;0, (Q4-M4)*R4/P4, "Risk free")</f>
-        <v>4.4804035487617302E-4</v>
-      </c>
-      <c r="P4" s="37">
+        <v>3.6574499791402265E-3</v>
+      </c>
+      <c r="P4" s="56">
         <f>'[1]مدیریت سرمایه'!$B$5</f>
-        <v>1466894651</v>
-      </c>
-      <c r="Q4" s="37">
+        <v>179695690.64468727</v>
+      </c>
+      <c r="Q4" s="56">
         <f>(SUM('تاریخچه خرید'!M4:M17)-SUMPRODUCT('تاریخچه فروش'!G4:G7*'تاریخچه فروش'!F4:F7))/R4</f>
         <v>11764</v>
       </c>
-      <c r="R4" s="39">
+      <c r="R4" s="51">
         <f>SUM('تاریخچه خرید'!Q4:Q17)-SUM('تاریخچه فروش'!G4:G11)</f>
         <v>429</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="54" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="44"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="34"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="B4:B5"/>
@@ -1999,16 +2007,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -2019,9 +2017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S4" sqref="S4:S5"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2043,44 +2041,44 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:21" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="C2" s="110"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="84" t="s">
+      <c r="G2" s="111"/>
+      <c r="H2" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="112" t="s">
+      <c r="I2" s="121"/>
+      <c r="J2" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="113"/>
-      <c r="L2" s="73" t="s">
+      <c r="K2" s="87"/>
+      <c r="L2" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="74"/>
-      <c r="N2" s="80" t="s">
+      <c r="M2" s="115"/>
+      <c r="N2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="52" t="s">
+      <c r="O2" s="62"/>
+      <c r="P2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="80" t="s">
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="81"/>
-      <c r="U2" s="69" t="s">
+      <c r="T2" s="62"/>
+      <c r="U2" s="112" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2094,7 +2092,7 @@
       <c r="D3" s="4">
         <v>4</v>
       </c>
-      <c r="E3" s="77"/>
+      <c r="E3" s="117"/>
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
@@ -2140,373 +2138,373 @@
       <c r="T3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="70"/>
+      <c r="U3" s="113"/>
     </row>
     <row r="4" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27"/>
-      <c r="B4" s="57">
+      <c r="B4" s="88">
         <v>3</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="67">
         <v>2</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="172" t="s">
+      <c r="E4" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="172" t="s">
+      <c r="F4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="171" t="s">
+      <c r="L4" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="78" t="s">
+      <c r="T4" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="U4" s="55" t="s">
+      <c r="U4" s="84" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="173" t="s">
+      <c r="B5" s="89"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="173" t="s">
+      <c r="F5" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="56"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="98"/>
     </row>
     <row r="6" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="98"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="92"/>
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="99"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="93"/>
     </row>
     <row r="8" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="55"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="84"/>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="56"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="98"/>
     </row>
     <row r="10" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="98"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="92"/>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="99"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="93"/>
     </row>
     <row r="12" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="116"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="55"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="84"/>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="56"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="98"/>
     </row>
     <row r="14" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="114"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="98"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="92"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="27"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="99"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="93"/>
     </row>
     <row r="16" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="55"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="84"/>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="27"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="111"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="85"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="27"/>
@@ -2539,38 +2537,98 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="U16:U17"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J16:J17"/>
@@ -2595,98 +2653,38 @@
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H4:H5" r:id="rId1" display="lag_990107.png"/>
@@ -2724,41 +2722,41 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="66" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="68"/>
-      <c r="M2" s="40" t="s">
+      <c r="L2" s="111"/>
+      <c r="M2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="80" t="s">
+      <c r="R2" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="81"/>
-      <c r="T2" s="154" t="s">
+      <c r="S2" s="62"/>
+      <c r="T2" s="122" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2796,360 +2794,360 @@
       <c r="L3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="38"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="50"/>
       <c r="R3" s="24" t="s">
         <v>36</v>
       </c>
       <c r="S3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="154"/>
+      <c r="T3" s="122"/>
     </row>
     <row r="4" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="44">
+      <c r="B4" s="38">
         <f>IF(K4&gt;0, C4/K4,"RF")</f>
         <v>-7.6788511749347288</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="39">
         <f>(D4/P4)-1</f>
         <v>-1</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="40">
         <v>0</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="38">
         <f>IF(K4&gt;0, F4/K4,"RF")</f>
         <v>-7.6788511749347288</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="39">
         <f>(G4/P4)-1</f>
         <v>-1</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="40">
         <v>0</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="38">
         <f>IF(K4&gt;0, I4/K4,"RF")</f>
         <v>3.8511749347258499</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="39">
         <f>(J4/P4)-1</f>
         <v>0.50153009180550834</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="40">
         <v>17664</v>
       </c>
-      <c r="K4" s="143">
+      <c r="K4" s="129">
         <f>IF(1-(L4/P4)&gt;0, 1-(L4/P4), 0)</f>
         <v>0.13022781366882008</v>
       </c>
-      <c r="L4" s="46">
+      <c r="L4" s="41">
         <v>10232</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="55">
         <f>P4*Q4</f>
         <v>5046756</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N4" s="39">
         <f>IF( (P4-L4)*Q4/O4&gt;0, (P4-L4)*Q4/O4, "Risk free")</f>
-        <v>4.4804035487617302E-4</v>
-      </c>
-      <c r="O4" s="37">
+        <v>3.6574499791402265E-3</v>
+      </c>
+      <c r="O4" s="56">
         <f>'[1]مدیریت سرمایه'!$B$5</f>
-        <v>1466894651</v>
-      </c>
-      <c r="P4" s="152">
+        <v>179695690.64468727</v>
+      </c>
+      <c r="P4" s="123">
         <v>11764</v>
       </c>
-      <c r="Q4" s="144">
+      <c r="Q4" s="124">
         <v>429</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="147" t="s">
+      <c r="S4" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="34" t="s">
+      <c r="T4" s="54" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="44"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="148"/>
-      <c r="T5" s="34"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="54"/>
     </row>
     <row r="6" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="153"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="145"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="34"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="54"/>
     </row>
     <row r="7" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="153"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="144"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="34"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="54"/>
     </row>
     <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="129"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="119"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="134"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="148"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="140"/>
     </row>
     <row r="9" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="130"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="120"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="137"/>
+      <c r="R9" s="149"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="141"/>
     </row>
     <row r="10" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="131"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="135"/>
-      <c r="R10" s="141"/>
-      <c r="S10" s="137"/>
-      <c r="T10" s="139"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="150"/>
     </row>
     <row r="11" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="132"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="136"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="134"/>
-      <c r="O11" s="134"/>
-      <c r="P11" s="134"/>
-      <c r="Q11" s="136"/>
-      <c r="R11" s="142"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="140"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="155"/>
+      <c r="T11" s="151"/>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="129"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="125"/>
-      <c r="S12" s="127"/>
-      <c r="T12" s="119"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="148"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="140"/>
     </row>
     <row r="13" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="130"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="124"/>
-      <c r="R13" s="126"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="120"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="137"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="157"/>
+      <c r="T13" s="141"/>
     </row>
     <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="131"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="141"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="139"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="144"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="144"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="152"/>
+      <c r="S14" s="154"/>
+      <c r="T14" s="150"/>
     </row>
     <row r="15" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="132"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="134"/>
-      <c r="O15" s="134"/>
-      <c r="P15" s="134"/>
-      <c r="Q15" s="136"/>
-      <c r="R15" s="142"/>
-      <c r="S15" s="138"/>
-      <c r="T15" s="140"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="155"/>
+      <c r="T15" s="151"/>
     </row>
     <row r="16" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="129"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="121"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="125"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="119"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="134"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="148"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="140"/>
     </row>
     <row r="17" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="130"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="122"/>
-      <c r="O17" s="122"/>
-      <c r="P17" s="122"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="126"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="120"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="149"/>
+      <c r="S17" s="157"/>
+      <c r="T17" s="141"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="S20" s="31"/>
@@ -3161,6 +3159,124 @@
     </row>
   </sheetData>
   <mergeCells count="142">
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:T3"/>
@@ -3185,124 +3301,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R4:R5" r:id="rId1" display="sig_990107.png"/>
@@ -3335,152 +3333,180 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="154" t="s">
+      <c r="E2" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="164" t="s">
+      <c r="F2" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="154" t="s">
+      <c r="G2" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="154" t="s">
+      <c r="I2" s="44"/>
+      <c r="J2" s="122" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="42"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="40"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="29" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="154"/>
+      <c r="J3" s="122"/>
     </row>
     <row r="4" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="159">
+      <c r="B4" s="171">
         <f>D4-(F4*G4)</f>
         <v>0</v>
       </c>
-      <c r="C4" s="160">
+      <c r="C4" s="172">
         <f>E4/F4-1</f>
         <v>7.8531308508425157E-2</v>
       </c>
-      <c r="D4" s="159">
+      <c r="D4" s="171">
         <f>E4*G4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="161">
+      <c r="E4" s="168">
         <v>10369</v>
       </c>
-      <c r="F4" s="166">
+      <c r="F4" s="161">
         <v>9614</v>
       </c>
-      <c r="G4" s="162">
+      <c r="G4" s="158">
         <v>0</v>
       </c>
-      <c r="H4" s="155"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="162"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="158"/>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="159"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="162"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="158"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="161"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="162"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="158"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="161"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="162"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="158"/>
     </row>
     <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="162"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="158"/>
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="162"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="158"/>
     </row>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="162"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="158"/>
     </row>
     <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="162"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
@@ -3497,34 +3523,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/شسپا/شسپا.xlsx
+++ b/شسپا/شسپا.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="715"/>
   </bookViews>
   <sheets>
     <sheet name="دارایی فعلی" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
   <si>
     <t>تاریخ</t>
   </si>
@@ -216,6 +216,15 @@
     <t xml:space="preserve">1
 (کراس 4 بر 9)
 </t>
+  </si>
+  <si>
+    <t>99/01/24</t>
+  </si>
+  <si>
+    <t>برخورد قیمت به مقاومت و قیمت در نزدیکی هدف</t>
+  </si>
+  <si>
+    <t>tech_990124.png</t>
   </si>
 </sst>
 </file>
@@ -940,7 +949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1450,9 +1459,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1478,6 +1484,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="پرتفوی"/>
+      <sheetName val="واچ لیست"/>
       <sheetName val="سرمایه"/>
       <sheetName val="بازدهی ماهانه"/>
       <sheetName val="واریز و برداشت"/>
@@ -1486,12 +1493,19 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="F4">
+            <v>675806374</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
         <row r="5">
           <cell r="B5">
-            <v>179695690.64468727</v>
+            <v>121194319.56012256</v>
           </cell>
         </row>
       </sheetData>
@@ -1789,7 +1803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
@@ -1799,6 +1813,7 @@
     <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
@@ -1891,9 +1906,9 @@
       <c r="S3" s="36"/>
     </row>
     <row r="4" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="38">
+      <c r="B4" s="38" t="str">
         <f>IF(L4&gt;0, C4/L4,"RF")</f>
-        <v>-7.6788511749347288</v>
+        <v>RF</v>
       </c>
       <c r="C4" s="39">
         <f>(D4/Q4)-1</f>
@@ -1902,9 +1917,9 @@
       <c r="D4" s="40">
         <v>0</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="38" t="str">
         <f>IF(L4&gt;0, F4/L4,"RF")</f>
-        <v>-7.6788511749347288</v>
+        <v>RF</v>
       </c>
       <c r="F4" s="39">
         <f>(G4/Q4)-1</f>
@@ -1913,47 +1928,47 @@
       <c r="G4" s="40">
         <v>0</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="38" t="str">
         <f>IF(L4&gt;0, I4/L4,"RF")</f>
-        <v>3.8511749347258499</v>
+        <v>RF</v>
       </c>
       <c r="I4" s="39">
         <f>(J4/Q4)-1</f>
-        <v>0.50153009180550834</v>
+        <v>-1</v>
       </c>
       <c r="J4" s="40">
-        <v>17664</v>
+        <v>0</v>
       </c>
       <c r="K4" s="45">
         <f>IF(L4&gt;0, N4-M4*R4, 0)</f>
-        <v>657228</v>
+        <v>0</v>
       </c>
       <c r="L4" s="46">
         <f>IF(1-(M4/Q4)&gt;0, 1-(M4/Q4), 0)</f>
-        <v>0.13022781366882008</v>
+        <v>0</v>
       </c>
       <c r="M4" s="41">
         <v>10232</v>
       </c>
       <c r="N4" s="55">
         <f>R4*Q4</f>
-        <v>5046756</v>
-      </c>
-      <c r="O4" s="39">
+        <v>0</v>
+      </c>
+      <c r="O4" s="39" t="str">
         <f>IF( (Q4-M4)*R4/P4&gt;0, (Q4-M4)*R4/P4, "Risk free")</f>
-        <v>3.6574499791402265E-3</v>
+        <v>Risk free</v>
       </c>
       <c r="P4" s="56">
-        <f>'[1]مدیریت سرمایه'!$B$5</f>
-        <v>179695690.64468727</v>
+        <f>[1]سرمایه!$F$4</f>
+        <v>675806374</v>
       </c>
       <c r="Q4" s="56">
-        <f>(SUM('تاریخچه خرید'!M4:M17)-SUMPRODUCT('تاریخچه فروش'!G4:G7*'تاریخچه فروش'!F4:F7))/R4</f>
-        <v>11764</v>
+        <f>IF(R4&gt;0, (SUM('تاریخچه خرید'!M4:M17)-SUMPRODUCT('تاریخچه فروش'!G4:G7*'تاریخچه فروش'!F4:F7))/R4, 1)</f>
+        <v>1</v>
       </c>
       <c r="R4" s="51">
         <f>SUM('تاریخچه خرید'!Q4:Q17)-SUM('تاریخچه فروش'!G4:G11)</f>
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="S4" s="54" t="s">
         <v>42</v>
@@ -2017,9 +2032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4:N5"/>
+      <selection pane="bottomLeft" activeCell="S4" sqref="S4:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2854,11 +2869,11 @@
       </c>
       <c r="N4" s="39">
         <f>IF( (P4-L4)*Q4/O4&gt;0, (P4-L4)*Q4/O4, "Risk free")</f>
-        <v>3.6574499791402265E-3</v>
+        <v>5.4229274308022308E-3</v>
       </c>
       <c r="O4" s="56">
         <f>'[1]مدیریت سرمایه'!$B$5</f>
-        <v>179695690.64468727</v>
+        <v>121194319.56012256</v>
       </c>
       <c r="P4" s="123">
         <v>11764</v>
@@ -3315,7 +3330,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3377,28 +3392,34 @@
     <row r="4" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="171">
         <f>D4-(F4*G4)</f>
-        <v>0</v>
+        <v>386837</v>
       </c>
       <c r="C4" s="172">
         <f>E4/F4-1</f>
-        <v>7.8531308508425157E-2</v>
+        <v>0.27176130567834078</v>
       </c>
       <c r="D4" s="171">
         <f>E4*G4</f>
-        <v>0</v>
+        <v>1810281</v>
       </c>
       <c r="E4" s="168">
-        <v>10369</v>
+        <v>14961</v>
       </c>
       <c r="F4" s="161">
-        <v>9614</v>
+        <v>11764</v>
       </c>
       <c r="G4" s="158">
-        <v>0</v>
-      </c>
-      <c r="H4" s="166"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="158"/>
+        <v>121</v>
+      </c>
+      <c r="H4" s="166" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="165" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="158" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="171"/>
@@ -3412,20 +3433,41 @@
       <c r="J5" s="158"/>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="168"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="158"/>
+      <c r="B6" s="171">
+        <f>D6-(F6*G6)</f>
+        <v>958188</v>
+      </c>
+      <c r="C6" s="172">
+        <f>E6/F6-1</f>
+        <v>0.26445086705202314</v>
+      </c>
+      <c r="D6" s="171">
+        <f>E6*G6</f>
+        <v>4581500</v>
+      </c>
+      <c r="E6" s="168">
+        <v>14875</v>
+      </c>
+      <c r="F6" s="161">
+        <v>11764</v>
+      </c>
+      <c r="G6" s="158">
+        <v>308</v>
+      </c>
+      <c r="H6" s="166" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="165" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="158" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="168"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="168"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="171"/>
       <c r="E7" s="168"/>
       <c r="F7" s="162"/>
       <c r="G7" s="158"/>
@@ -3524,6 +3566,10 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H4:H5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H4:H5" r:id="rId1" display="tech_990124.png"/>
+    <hyperlink ref="H6:H7" r:id="rId2" display="tech_990124.png"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>